--- a/Module02.xlsx
+++ b/Module02.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thcon\Desktop\Bai tap nop theo nhom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhatDepTraiCute\Downloads\Đảm bảo chất lượng phần mềm\DHKTPM13A_NopModule02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B442556E-E504-4A05-8EAE-1AE7A9FE1F2A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Bài 1" sheetId="11" r:id="rId1"/>
@@ -34,7 +33,7 @@
     <sheet name="Bài 18(CHC)" sheetId="19" r:id="rId19"/>
     <sheet name="Bài 19(CHC)" sheetId="20" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -914,7 +913,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1400,6 +1399,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1423,9 +1425,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1465,7 +1464,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1514,7 +1513,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1579,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,7 +1645,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1712,7 +1711,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1778,7 +1777,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1844,7 +1843,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1910,7 +1909,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1959,7 +1958,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2008,7 +2007,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2057,7 +2056,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2106,7 +2105,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2172,7 +2171,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,7 +2237,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2287,7 +2286,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2352,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2419,7 +2418,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,7 +2484,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2546,7 +2545,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2612,7 +2611,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2920,25 +2919,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G45"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="80" t="s">
         <v>27</v>
       </c>
@@ -2955,7 +2954,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
         <v>175</v>
       </c>
@@ -2968,7 +2967,7 @@
       <c r="D3" s="78"/>
       <c r="E3" s="78"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="83"/>
       <c r="B4" s="78"/>
       <c r="C4" s="78" t="s">
@@ -2977,7 +2976,7 @@
       <c r="D4" s="78"/>
       <c r="E4" s="78"/>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
         <v>176</v>
       </c>
@@ -2990,7 +2989,7 @@
       <c r="D5" s="78"/>
       <c r="E5" s="78"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="83"/>
       <c r="B6" s="78"/>
       <c r="C6" s="78" t="s">
@@ -2999,7 +2998,7 @@
       <c r="D6" s="78"/>
       <c r="E6" s="78"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="82" t="s">
         <v>177</v>
       </c>
@@ -3016,7 +3015,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="84"/>
       <c r="B8" s="78" t="s">
         <v>182</v>
@@ -3031,7 +3030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="84"/>
       <c r="B9" s="78"/>
       <c r="C9" s="78" t="s">
@@ -3040,7 +3039,7 @@
       <c r="D9" s="78"/>
       <c r="E9" s="78"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="83"/>
       <c r="B10" s="78"/>
       <c r="C10" s="78" t="s">
@@ -3049,7 +3048,7 @@
       <c r="D10" s="78"/>
       <c r="E10" s="78"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="82" t="s">
         <v>178</v>
       </c>
@@ -3066,7 +3065,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="84"/>
       <c r="B12" s="78" t="s">
         <v>184</v>
@@ -3081,7 +3080,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="84"/>
       <c r="B13" s="78"/>
       <c r="C13" s="78" t="s">
@@ -3090,7 +3089,7 @@
       <c r="D13" s="78"/>
       <c r="E13" s="78"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="79"/>
       <c r="B14" s="78"/>
       <c r="C14" s="78" t="s">
@@ -3099,12 +3098,12 @@
       <c r="D14" s="78"/>
       <c r="E14" s="78"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="55" t="s">
         <v>8</v>
       </c>
@@ -3127,7 +3126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="51">
         <v>1</v>
       </c>
@@ -3150,7 +3149,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="52">
         <v>2</v>
       </c>
@@ -3171,7 +3170,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <v>3</v>
       </c>
@@ -3192,7 +3191,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="51">
         <v>1</v>
       </c>
@@ -3215,7 +3214,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="51">
         <v>2</v>
       </c>
@@ -3236,7 +3235,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="51">
         <v>3</v>
       </c>
@@ -3257,7 +3256,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="51">
         <v>4</v>
       </c>
@@ -3278,7 +3277,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="51">
         <v>5</v>
       </c>
@@ -3299,7 +3298,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="51">
         <v>6</v>
       </c>
@@ -3320,7 +3319,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="51">
         <v>7</v>
       </c>
@@ -3341,7 +3340,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="51">
         <v>8</v>
       </c>
@@ -3362,7 +3361,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="51">
         <v>9</v>
       </c>
@@ -3383,7 +3382,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="51">
         <v>10</v>
       </c>
@@ -3404,7 +3403,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="51">
         <v>11</v>
       </c>
@@ -3425,7 +3424,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="51">
         <v>12</v>
       </c>
@@ -3446,7 +3445,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="51">
         <v>1</v>
       </c>
@@ -3469,7 +3468,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="51">
         <v>2</v>
       </c>
@@ -3490,7 +3489,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="51">
         <v>3</v>
       </c>
@@ -3511,7 +3510,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="51">
         <v>4</v>
       </c>
@@ -3532,7 +3531,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="51">
         <v>5</v>
       </c>
@@ -3553,7 +3552,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="51">
         <v>6</v>
       </c>
@@ -3574,7 +3573,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="51">
         <v>1</v>
       </c>
@@ -3597,7 +3596,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="51">
         <v>2</v>
       </c>
@@ -3618,7 +3617,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="51">
         <v>3</v>
       </c>
@@ -3639,7 +3638,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="38">
         <v>4</v>
       </c>
@@ -3667,28 +3666,28 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>27</v>
       </c>
@@ -3705,7 +3704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>105</v>
       </c>
@@ -3716,7 +3715,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="88" t="s">
         <v>8</v>
       </c>
@@ -3736,7 +3735,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="101">
         <v>1</v>
       </c>
@@ -3756,7 +3755,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="101">
         <v>2</v>
       </c>
@@ -3776,7 +3775,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="101">
         <v>3</v>
       </c>
@@ -3796,7 +3795,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="101">
         <v>4</v>
       </c>
@@ -3824,26 +3823,26 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -3860,7 +3859,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>25</v>
       </c>
@@ -3868,8 +3867,8 @@
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="103" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="104" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -3885,8 +3884,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="104"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="105"/>
       <c r="B4" s="38" t="s">
         <v>226</v>
       </c>
@@ -3900,8 +3899,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="103" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="104" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="38" t="s">
@@ -3917,8 +3916,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="105"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="106"/>
       <c r="B6" s="38" t="s">
         <v>227</v>
       </c>
@@ -3932,7 +3931,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
@@ -3958,7 +3957,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -3984,11 +3983,11 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="104" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="38" t="s">
@@ -4010,11 +4009,11 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="104"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="38" t="s">
         <v>91</v>
       </c>
@@ -4034,11 +4033,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="104"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="38" t="s">
         <v>91</v>
       </c>
@@ -4058,11 +4057,11 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="105"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="38" t="s">
         <v>91</v>
       </c>
@@ -4082,11 +4081,11 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>6</v>
       </c>
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="104" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -4108,11 +4107,11 @@
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>7</v>
       </c>
-      <c r="B15" s="105"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="38" t="s">
         <v>91</v>
       </c>
@@ -4132,11 +4131,11 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>8</v>
       </c>
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="104" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="38" t="s">
@@ -4158,11 +4157,11 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>9</v>
       </c>
-      <c r="B17" s="104"/>
+      <c r="B17" s="105"/>
       <c r="C17" s="38" t="s">
         <v>91</v>
       </c>
@@ -4182,11 +4181,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>10</v>
       </c>
-      <c r="B18" s="104"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="38" t="s">
         <v>91</v>
       </c>
@@ -4206,11 +4205,11 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>11</v>
       </c>
-      <c r="B19" s="105"/>
+      <c r="B19" s="106"/>
       <c r="C19" s="38" t="s">
         <v>91</v>
       </c>
@@ -4230,7 +4229,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>5</v>
       </c>
@@ -4241,7 +4240,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>266</v>
       </c>
@@ -4252,7 +4251,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>7</v>
       </c>
@@ -4260,7 +4259,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>11</v>
       </c>
@@ -4283,24 +4282,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="1" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
@@ -4317,7 +4316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>120</v>
       </c>
@@ -4326,7 +4325,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>121</v>
       </c>
@@ -4341,7 +4340,7 @@
       </c>
       <c r="E3" s="39"/>
     </row>
-    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
       <c r="B4" s="36" t="s">
         <v>280</v>
@@ -4350,7 +4349,7 @@
       <c r="D4" s="101"/>
       <c r="E4" s="39"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="37"/>
       <c r="C5" s="4" t="s">
@@ -4361,7 +4360,7 @@
       </c>
       <c r="E5" s="39"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>122</v>
       </c>
@@ -4370,14 +4369,14 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="37"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>8</v>
       </c>
@@ -4403,7 +4402,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="100">
         <v>1</v>
       </c>
@@ -4429,7 +4428,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="100">
         <v>2</v>
       </c>
@@ -4453,7 +4452,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="100">
         <v>3</v>
       </c>
@@ -4477,7 +4476,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="100">
         <v>4</v>
       </c>
@@ -4501,7 +4500,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="100">
         <v>5</v>
       </c>
@@ -4525,7 +4524,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="100">
         <v>6</v>
       </c>
@@ -4551,7 +4550,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="100">
         <v>7</v>
       </c>
@@ -4575,7 +4574,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="100">
         <v>8</v>
       </c>
@@ -4601,7 +4600,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="100">
         <v>9</v>
       </c>
@@ -4625,7 +4624,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="100">
         <v>10</v>
       </c>
@@ -4651,7 +4650,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="101">
         <v>11</v>
       </c>
@@ -4682,23 +4681,23 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
@@ -4715,7 +4714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>107</v>
       </c>
@@ -4730,7 +4729,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>8</v>
       </c>
@@ -4747,7 +4746,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -4760,11 +4759,11 @@
       <c r="D5" s="4">
         <v>2147483647</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="103" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -4777,11 +4776,11 @@
       <c r="D6" s="4">
         <v>2147483647</v>
       </c>
-      <c r="E6" s="111" t="s">
+      <c r="E6" s="103" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -4791,10 +4790,10 @@
       <c r="C7" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="D7" s="111" t="s">
+      <c r="D7" s="103" t="s">
         <v>283</v>
       </c>
-      <c r="E7" s="111" t="s">
+      <c r="E7" s="103" t="s">
         <v>284</v>
       </c>
     </row>
@@ -4805,23 +4804,23 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>27</v>
       </c>
@@ -4838,7 +4837,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>107</v>
       </c>
@@ -4847,7 +4846,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>26</v>
       </c>
@@ -4864,7 +4863,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="9" t="s">
         <v>116</v>
@@ -4875,7 +4874,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
@@ -4890,7 +4889,7 @@
       </c>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -4905,7 +4904,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -4920,7 +4919,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -4935,7 +4934,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -4950,7 +4949,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -4972,23 +4971,23 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
@@ -5005,7 +5004,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>93</v>
       </c>
@@ -5014,7 +5013,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>94</v>
       </c>
@@ -5027,7 +5026,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>95</v>
       </c>
@@ -5040,7 +5039,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="9" t="s">
         <v>98</v>
@@ -5049,7 +5048,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
@@ -5066,7 +5065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -5083,7 +5082,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -5100,7 +5099,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -5124,21 +5123,21 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
@@ -5149,7 +5148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
         <v>168</v>
       </c>
@@ -5160,14 +5159,14 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="38"/>
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
         <v>8</v>
       </c>
@@ -5178,7 +5177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="38">
         <v>1</v>
       </c>
@@ -5189,7 +5188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="38">
         <v>2</v>
       </c>
@@ -5200,7 +5199,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="38">
         <v>3</v>
       </c>
@@ -5211,7 +5210,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>4</v>
       </c>
@@ -5229,14 +5228,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5244,14 +5243,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5259,12 +5258,12 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5272,25 +5271,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
@@ -5307,7 +5306,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>30</v>
       </c>
@@ -5324,7 +5323,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
@@ -5339,7 +5338,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="9" t="s">
         <v>36</v>
@@ -5350,7 +5349,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="10"/>
       <c r="C5" s="7" t="s">
@@ -5359,7 +5358,7 @@
       <c r="D5" s="23"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="9"/>
       <c r="C6" s="4" t="s">
@@ -5368,7 +5367,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>31</v>
       </c>
@@ -5385,7 +5384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="4" t="s">
         <v>46</v>
@@ -5400,7 +5399,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="4"/>
       <c r="C9" s="7" t="s">
@@ -5409,7 +5408,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="4"/>
       <c r="C10" s="7" t="s">
@@ -5418,7 +5417,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>32</v>
       </c>
@@ -5431,7 +5430,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="4" t="s">
         <v>49</v>
@@ -5442,7 +5441,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>51</v>
@@ -5453,7 +5452,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>50</v>
@@ -5464,7 +5463,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>33</v>
       </c>
@@ -5481,7 +5480,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>35</v>
@@ -5494,7 +5493,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="9" t="s">
         <v>57</v>
@@ -5505,7 +5504,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="9"/>
       <c r="C18" s="4" t="s">
@@ -5514,7 +5513,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
@@ -5523,7 +5522,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>8</v>
       </c>
@@ -5546,7 +5545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>1</v>
       </c>
@@ -5569,7 +5568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>1</v>
       </c>
@@ -5592,7 +5591,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>2</v>
       </c>
@@ -5613,7 +5612,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="31">
         <v>3</v>
       </c>
@@ -5634,7 +5633,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>4</v>
       </c>
@@ -5655,7 +5654,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>5</v>
       </c>
@@ -5676,7 +5675,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>6</v>
       </c>
@@ -5697,7 +5696,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>7</v>
       </c>
@@ -5718,7 +5717,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>8</v>
       </c>
@@ -5739,7 +5738,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
         <v>9</v>
       </c>
@@ -5760,7 +5759,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
         <v>10</v>
       </c>
@@ -5781,7 +5780,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
         <v>1</v>
       </c>
@@ -5804,7 +5803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="31">
         <v>2</v>
       </c>
@@ -5825,7 +5824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="29">
         <v>1</v>
       </c>
@@ -5848,7 +5847,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>2</v>
       </c>
@@ -5869,24 +5868,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C25" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5895,12 +5894,12 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5908,28 +5907,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>27</v>
       </c>
@@ -5946,7 +5945,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
         <v>16</v>
       </c>
@@ -5961,7 +5960,7 @@
       </c>
       <c r="E4" s="38"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="52"/>
       <c r="B5" s="60"/>
       <c r="C5" s="38" t="s">
@@ -5972,7 +5971,7 @@
       </c>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="52"/>
       <c r="B6" s="60" t="s">
         <v>5</v>
@@ -5987,7 +5986,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="52"/>
       <c r="B7" s="60"/>
       <c r="C7" s="38" t="s">
@@ -6000,7 +5999,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="41"/>
       <c r="B8" s="38"/>
       <c r="C8" s="38" t="s">
@@ -6009,12 +6008,12 @@
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="55" t="s">
         <v>8</v>
       </c>
@@ -6028,7 +6027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="51">
         <v>1</v>
       </c>
@@ -6042,7 +6041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>2</v>
       </c>
@@ -6054,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>1</v>
       </c>
@@ -6068,7 +6067,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="51">
         <v>1</v>
       </c>
@@ -6082,7 +6081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="52">
         <v>2</v>
       </c>
@@ -6094,7 +6093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="52">
         <v>3</v>
       </c>
@@ -6106,7 +6105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>4</v>
       </c>
@@ -6118,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="51">
         <v>1</v>
       </c>
@@ -6132,7 +6131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>2</v>
       </c>
@@ -6152,28 +6151,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="43.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>27</v>
       </c>
@@ -6190,7 +6189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>26</v>
       </c>
@@ -6207,7 +6206,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
       <c r="B4" s="9" t="s">
         <v>164</v>
@@ -6218,7 +6217,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="76" t="s">
         <v>166</v>
@@ -6229,7 +6228,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="9"/>
       <c r="C6" s="4" t="s">
@@ -6238,12 +6237,12 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
         <v>8</v>
       </c>
@@ -6257,7 +6256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="51">
         <v>1</v>
       </c>
@@ -6271,7 +6270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>2</v>
       </c>
@@ -6283,7 +6282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="51">
         <v>1</v>
       </c>
@@ -6297,7 +6296,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="52">
         <v>2</v>
       </c>
@@ -6309,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="52">
         <v>3</v>
       </c>
@@ -6321,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>4</v>
       </c>
@@ -6333,7 +6332,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>1</v>
       </c>
@@ -6347,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>1</v>
       </c>
@@ -6368,29 +6367,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6410,7 +6409,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -6426,7 +6425,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="38">
         <v>1</v>
@@ -6437,12 +6436,12 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="53" t="s">
         <v>8</v>
       </c>
@@ -6456,7 +6455,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -6473,7 +6472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -6490,7 +6489,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -6505,7 +6504,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -6527,28 +6526,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>27</v>
       </c>
@@ -6559,7 +6558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>214</v>
       </c>
@@ -6570,90 +6569,90 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="104" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B6" s="104"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="105"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="104" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="104"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="104"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="104"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="104"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="104"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="105"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="55" t="s">
         <v>8</v>
       </c>
@@ -6670,7 +6669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>1</v>
       </c>
@@ -6687,7 +6686,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>2</v>
       </c>
@@ -6700,11 +6699,11 @@
       <c r="D19" s="38">
         <v>3</v>
       </c>
-      <c r="E19" s="103" t="s">
+      <c r="E19" s="104" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="51">
         <v>3</v>
       </c>
@@ -6717,13 +6716,13 @@
       <c r="D20" s="51">
         <v>1</v>
       </c>
-      <c r="E20" s="104"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="105"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4</v>
       </c>
-      <c r="E21" s="105"/>
+      <c r="E21" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6737,24 +6736,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>27</v>
       </c>
@@ -6772,7 +6771,7 @@
       </c>
       <c r="L2" s="87"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>214</v>
       </c>
@@ -6790,7 +6789,7 @@
       </c>
       <c r="L3" s="87"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="41"/>
       <c r="B4" s="74"/>
       <c r="C4" s="46"/>
@@ -6802,7 +6801,7 @@
       </c>
       <c r="L4" s="87"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>215</v>
       </c>
@@ -6820,7 +6819,7 @@
       </c>
       <c r="L5" s="87"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
       <c r="B6" s="74"/>
       <c r="C6" s="46"/>
@@ -6832,7 +6831,7 @@
       </c>
       <c r="L6" s="87"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
         <v>216</v>
       </c>
@@ -6850,7 +6849,7 @@
       </c>
       <c r="L7" s="87"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="46"/>
@@ -6862,16 +6861,16 @@
       </c>
       <c r="L8" s="87"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L9" s="87"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L10" s="87"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>8</v>
       </c>
@@ -6895,7 +6894,7 @@
       </c>
       <c r="L11" s="87"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="91">
         <v>1</v>
       </c>
@@ -6919,7 +6918,7 @@
       </c>
       <c r="L12" s="87"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="91">
         <v>2</v>
       </c>
@@ -6943,7 +6942,7 @@
       </c>
       <c r="L13" s="87"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="91">
         <v>3</v>
       </c>
@@ -6967,7 +6966,7 @@
       </c>
       <c r="L14" s="87"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="91">
         <v>4</v>
       </c>
@@ -6991,7 +6990,7 @@
       </c>
       <c r="L15" s="87"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="91">
         <v>5</v>
       </c>
@@ -7014,7 +7013,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="91">
         <v>6</v>
       </c>
@@ -7037,7 +7036,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="91">
         <v>7</v>
       </c>
@@ -7060,7 +7059,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="91">
         <v>8</v>
       </c>
@@ -7083,7 +7082,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="91">
         <v>9</v>
       </c>
@@ -7106,7 +7105,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="91">
         <v>10</v>
       </c>
@@ -7129,7 +7128,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="91">
         <v>11</v>
       </c>
@@ -7152,7 +7151,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="91">
         <v>12</v>
       </c>
@@ -7175,7 +7174,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="91">
         <v>13</v>
       </c>
@@ -7198,7 +7197,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="91">
         <v>14</v>
       </c>
@@ -7228,39 +7227,39 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="108"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="109"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>214</v>
       </c>
@@ -7271,27 +7270,27 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="107" t="s">
         <v>253</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="B6" s="106"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="33"/>
       <c r="B7" s="38" t="s">
         <v>257</v>
@@ -7300,7 +7299,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="38" t="s">
         <v>259</v>
@@ -7309,7 +7308,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="38" t="s">
         <v>260</v>
@@ -7318,7 +7317,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>8</v>
       </c>
@@ -7341,7 +7340,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>1</v>
       </c>
@@ -7364,7 +7363,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>2</v>
       </c>
@@ -7387,7 +7386,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>3</v>
       </c>
@@ -7410,7 +7409,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>4</v>
       </c>
@@ -7433,7 +7432,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>5</v>
       </c>
@@ -7456,7 +7455,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="99">
         <v>6</v>
       </c>
@@ -7491,30 +7490,30 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>27</v>
       </c>
@@ -7531,7 +7530,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>145</v>
       </c>
@@ -7544,7 +7543,7 @@
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>146</v>
       </c>
@@ -7557,7 +7556,7 @@
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="69"/>
       <c r="B6" s="41" t="s">
         <v>106</v>
@@ -7568,11 +7567,11 @@
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="110" t="s">
         <v>149</v>
       </c>
       <c r="C7" s="40"/>
@@ -7583,18 +7582,18 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="69"/>
-      <c r="B8" s="110"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="40"/>
       <c r="D8" s="38">
         <v>50</v>
       </c>
       <c r="E8" s="38"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="110" t="s">
         <v>150</v>
       </c>
       <c r="C9" s="40"/>
@@ -7603,18 +7602,18 @@
       </c>
       <c r="E9" s="38"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
-      <c r="B10" s="110"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="40"/>
       <c r="D10" s="38">
         <v>100</v>
       </c>
       <c r="E10" s="38"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="110" t="s">
         <v>151</v>
       </c>
       <c r="C11" s="40"/>
@@ -7623,18 +7622,18 @@
       </c>
       <c r="E11" s="38"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
-      <c r="B12" s="110"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="40"/>
       <c r="D12" s="38">
         <v>200</v>
       </c>
       <c r="E12" s="38"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="43"/>
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="110" t="s">
         <v>152</v>
       </c>
       <c r="C13" s="40"/>
@@ -7643,18 +7642,18 @@
       </c>
       <c r="E13" s="38"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
-      <c r="B14" s="110"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="40"/>
       <c r="D14" s="38">
         <v>300</v>
       </c>
       <c r="E14" s="38"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="110" t="s">
         <v>153</v>
       </c>
       <c r="C15" s="40"/>
@@ -7663,18 +7662,18 @@
       </c>
       <c r="E15" s="38"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
-      <c r="B16" s="110"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="40"/>
       <c r="D16" s="38">
         <v>400</v>
       </c>
       <c r="E16" s="38"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
-      <c r="B17" s="109" t="s">
+      <c r="B17" s="110" t="s">
         <v>154</v>
       </c>
       <c r="C17" s="40"/>
@@ -7683,9 +7682,9 @@
       </c>
       <c r="E17" s="38"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
-      <c r="B18" s="110"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="40"/>
       <c r="D18" s="38" t="s">
         <v>155</v>
@@ -7694,7 +7693,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
         <v>8</v>
       </c>
@@ -7720,7 +7719,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="51">
         <v>1</v>
       </c>
@@ -7746,7 +7745,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="102">
         <v>2</v>
       </c>
@@ -7770,7 +7769,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="102">
         <v>3</v>
       </c>
@@ -7794,7 +7793,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="102">
         <v>4</v>
       </c>
@@ -7818,7 +7817,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="102">
         <v>5</v>
       </c>
@@ -7844,7 +7843,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="102">
         <v>6</v>
       </c>
@@ -7869,7 +7868,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="102">
         <v>7</v>
       </c>
@@ -7891,7 +7890,7 @@
       <c r="G28" s="89"/>
       <c r="H28" s="89"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="102">
         <v>8</v>
       </c>
@@ -7911,7 +7910,7 @@
       <c r="G29" s="89"/>
       <c r="H29" s="89"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="102">
         <v>9</v>
       </c>
@@ -7931,7 +7930,7 @@
       <c r="G30" s="89"/>
       <c r="H30" s="89"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="102">
         <v>10</v>
       </c>
@@ -7957,7 +7956,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="102">
         <v>11</v>
       </c>
@@ -7983,7 +7982,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="102">
         <v>12</v>
       </c>
@@ -8009,7 +8008,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="102">
         <v>13</v>
       </c>
@@ -8035,7 +8034,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="102">
         <v>14</v>
       </c>
@@ -8061,7 +8060,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="102">
         <v>15</v>
       </c>
@@ -8087,7 +8086,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="102">
         <v>16</v>
       </c>
@@ -8113,7 +8112,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="102">
         <v>17</v>
       </c>
@@ -8139,7 +8138,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="102">
         <v>18</v>
       </c>
@@ -8165,7 +8164,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="102">
         <v>19</v>
       </c>
@@ -8191,7 +8190,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="102">
         <v>20</v>
       </c>
@@ -8217,7 +8216,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="102">
         <v>21</v>
       </c>
@@ -8237,7 +8236,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="102">
         <v>22</v>
       </c>
